--- a/CashFlow/WEC_cashflow.xlsx
+++ b/CashFlow/WEC_cashflow.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -108,11 +108,12 @@
     <col min="33" max="33" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="34" max="34" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="35" max="35" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="36" max="36" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="36" max="36" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="37" max="37" bestFit="1" customWidth="1" width="14.3"/>
     <col min="38" max="38" bestFit="1" customWidth="1" width="14.3"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="40" max="40" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="40" max="40" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="15.400000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>1258300000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>1201000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>1206000000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>1173300000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>1167100000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>1134500000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>1095800000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>1095000000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>1090500000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>1060500000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>1288100000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>1270300000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>1238400000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>1204900000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>966700000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>968300000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>950600000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>940200000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>925400000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>891200000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>790700000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>640300000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>583000000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>526200000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>578000000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>589500000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>612400000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>623600000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>609600000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>578600000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>531900000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>550500000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>550800000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>546300000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>563500000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>537200000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>527400000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>526200000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>536100000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>518500000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>998200000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>975900000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>962800000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>951600000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>939000000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>926300000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>907800000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>886800000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>863600000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>845800000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>833200000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>821600000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>812600000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>798600000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>774600000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>768900000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>765300000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>762600000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>774100000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>754400000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>668100000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>583500000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>495000000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>425600000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>420600000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>417000000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>411300000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>404800000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>401500000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>396000000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>391100000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>385600000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>379300000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>371700000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>365700000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>351000000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>342800000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>336400000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>282100000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>227400000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>-191700000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>67100000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>187300000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>132500000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>169500000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>94100000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>213900000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>252600000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>195300000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>201100000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>-148000000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>24700000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>127700000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>146400000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>348800000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>302200000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>279900000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>418500000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>573900000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>545200000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>465600000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>286700000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>152200000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>124100000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>191300000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>305700000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>316600000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>334800000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>299700000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>289900000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>263400000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>195100000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>227100000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>193200000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>344300000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>279800000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>271600000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>153200000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>95700000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>163500000.0</v>
       </c>
     </row>
@@ -618,120 +631,123 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>-130800000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>16100000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>300000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>45700000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>219000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>98200000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>71600000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>55900000.0</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="J5" s="0" t="n">
         <v>-40700000.0</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="K5" s="0" t="n">
         <v>23500000.0</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>-84800000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>-98200000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>-201500000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>-86400000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>-55400000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>-63500000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>-77100000.0</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="S5" s="0" t="n">
         <v>-180700000.0</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="T5" s="0" t="n">
         <v>-300000.0</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="U5" s="0" t="n">
         <v>79600000.0</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>63400000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>84000000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>129100000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>83200000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>237500000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>80700000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>-37100000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>-80200000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>-263400000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>-162900000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>14900000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>-8600000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>-57500000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>38300000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>12400000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>35200000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>82500000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>30100000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>-25400000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>-31800000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1961000000.0</v>
+        <v>37600000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1982000000.0</v>
+        <v>21200000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1277100000.0</v>
+        <v>19800000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>677800000.0</v>
+        <v>-6400000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>505100000.0</v>
+        <v>-61100000.0</v>
       </c>
       <c r="G6" s="0" t="n">
+        <v>-1500000.0</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>15300000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>5600000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>46500000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>-8800000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>64400000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>44000000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>41800000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>49300000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>-17900000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>-15600000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>53300000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>100000000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>65800000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>51900000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>36900000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>-69400000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>-122700000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>-24100000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>-54800000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>-71200000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>-11700000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>13600000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>31900000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>31300000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>-25500000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>17100000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>44800000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>21300000.0</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>25900000.0</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>4100000.0</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AL6" s="0" t="n">
         <v>-27200000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>-2900000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>54300000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>51100000.0</v>
       </c>
     </row>
@@ -866,120 +885,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>7300000.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>-61300000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>14900000.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>35900000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>-44300000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>1500000.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>-10500000.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>-27100000.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>77200000.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>110600000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>48500000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>37500000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>50300000.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>8500000.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>17900000.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>32800000.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>-54600000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>34400000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>-48100000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>-149100000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>-61700000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>-9300000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>-4500000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>103700000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>-142300000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>23700000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>16700000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>19200000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>184400000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>-14800000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>41100000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>17400000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>21600000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>43800000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>-2900000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>-9700000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>-22100000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>11800000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>19300000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>12400000.0</v>
       </c>
     </row>
@@ -989,16 +1011,16 @@
           <t>Change in payables and accrued liability</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>-61300000.0</v>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>14900000.0</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>2927000000.0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2954000000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
@@ -1176,6 +1198,11 @@
         </is>
       </c>
       <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1297,57 +1324,62 @@
           <t/>
         </is>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="n">
         <v>-1200000.0</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>-16800000.0</v>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="n">
         <v>-21900000.0</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>9800000.0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <v>50800000.0</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <v>36600000.0</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AF9" s="0" t="n">
         <v>57500000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>127400000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>88600000.0</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <v>116900000.0</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>-48900000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>-140900000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>-111600000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>-87400000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>24100000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>29800000.0</v>
       </c>
     </row>
@@ -1358,120 +1390,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>-11800000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>-24400000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>63400000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>105000000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>-81800000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>92600000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>-124200000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>-191600000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>-107800000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>-77600000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>229700000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>200800000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>232600000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>154700000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>167000000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>187500000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>221400000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>82400000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>-191000000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>-100900000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>-92700000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>-13100000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>113900000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>-33900000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>18000000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>-59200000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>-38800000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>-19400000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>-67100000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>1300000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>11600000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>28100000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>25200000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>6400000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>76400000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>17100000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>-100000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>49500000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>-37900000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>35500000.0</v>
       </c>
     </row>
@@ -1482,120 +1517,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>-31400000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>3400000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>-5800000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>-600000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>-18300000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>20600000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>108300000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>146100000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>162600000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>290400000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>110000000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>24400000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>-43900000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>-197400000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>-74100000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>-34000000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>-16300000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>-53600000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>-158700000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>-260600000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>-217300000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>-209100000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>-117600000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>-31800000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>-96600000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>-87300000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>-31000000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>-34200000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>39600000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>76200000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>-54200000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>-65900000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>-116200000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>-164000000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>-178200000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>-120300000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>-120400000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>-23500000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>36000000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>28900000.0</v>
       </c>
     </row>
@@ -1606,120 +1644,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>1900700000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>2196000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>2454500000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>2433900000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>2300300000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>2345500000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>2278000000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>2223300000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>2287200000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>2445500000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>2341100000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>2325100000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>2258000000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>2078600000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>2127600000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>2146600000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>2122500000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>2103800000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>1941100000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>1801200000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>1659500000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>1293600000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>1238700000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>1194100000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>1143800000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>1198900000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>1216500000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>1272000000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>1287000000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>1232200000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>1231800000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>1246700000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>1163700000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>1173900000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>1158200000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>953500000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>942900000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>993400000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>984300000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>1035300000.0</v>
       </c>
     </row>
@@ -1730,120 +1771,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>-2203300000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>-2238800000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>-2390400000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>-2442800000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>-2407400000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>-2260800000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>-2104500000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>-2055400000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>-2025100000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>-2115700000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>-2163500000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>-2105700000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>-2068600000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>-1959500000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>-1543800000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>-1569000000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>-1275100000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>-1257400000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>-1472300000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>-1327000000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>-1396100000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>-1237300000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>-1013300000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>-823700000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>-785200000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>-761200000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>-738000000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>-720900000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>-718300000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>-722700000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>-718500000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>-691600000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>-689600000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>-698300000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>-693100000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>-794700000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>-834400000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>-789300000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>-821400000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>-722500000.0</v>
       </c>
     </row>
@@ -1854,83 +1898,81 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>-717300000.0</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>-627900000.0</v>
       </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>6600000.0</v>
       </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>-230600000.0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>-347800000.0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>-458300000.0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>-557500000.0</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>-265300000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>-185700000.0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>-284300000.0</v>
       </c>
-      <c r="M14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O14" s="0" t="n">
         <v>-202000000.0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>-64800000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>41700000.0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>280800000.0</v>
       </c>
-      <c r="R14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="T14" s="0" t="n">
         <v>246000000.0</v>
       </c>
-      <c r="T14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U14" s="0" t="n">
+      <c r="U14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V14" s="0" t="n">
         <v>-1223400000.0</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>-1316000000.0</v>
       </c>
-      <c r="W14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="X14" s="0" t="inlineStr">
         <is>
           <t/>
@@ -2012,6 +2054,11 @@
         </is>
       </c>
       <c r="AN14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO14" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -2024,120 +2071,123 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
+        <v>-4100000.0</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>-2800000.0</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>-13400000.0</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>-22500000.0</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>-35100000.0</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>-52400000.0</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>-9900000.0</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="I15" s="0" t="n">
         <v>-5800000.0</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>-6900000.0</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>100000.0</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>-77000000.0</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>-78600000.0</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>-81900000.0</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>-104600000.0</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>-127400000.0</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>-129600000.0</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>-109800000.0</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>-99800000.0</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>-30200000.0</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>-18200000.0</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>-16400000.0</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>-8700000.0</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>-8200000.0</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>-7800000.0</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>-10500000.0</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>-13100000.0</v>
       </c>
       <c r="AA15" s="0" t="n">
         <v>-13100000.0</v>
       </c>
       <c r="AB15" s="0" t="n">
+        <v>-13100000.0</v>
+      </c>
+      <c r="AC15" s="0" t="n">
         <v>-13200000.0</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>-13100000.0</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AE15" s="0" t="n">
         <v>-10500000.0</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AF15" s="0" t="n">
         <v>-3700000.0</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <v>900000.0</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>7600000.0</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>27100000.0</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>22900000.0</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AK15" s="0" t="n">
         <v>19000000.0</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AL15" s="0" t="n">
         <v>14200000.0</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AM15" s="0" t="n">
         <v>-43800000.0</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AN15" s="0" t="n">
         <v>9300000.0</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AO15" s="0" t="n">
         <v>61300000.0</v>
       </c>
     </row>
@@ -2148,120 +2198,123 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
+        <v>17100000.0</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>7600000.0</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>23400000.0</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>8200000.0</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>44100000.0</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>42000000.0</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>63300000.0</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>65500000.0</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>34300000.0</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>20500000.0</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>17900000.0</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>14800000.0</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>8800000.0</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>12000000.0</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>-20000000.0</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>-16700000.0</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>-20600000.0</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>3000000.0</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>78100000.0</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>79500000.0</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>86300000.0</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>58400000.0</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>13700000.0</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>2700000.0</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>7800000.0</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>3600000.0</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>21200000.0</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>12000000.0</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>-8200000.0</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>-12600000.0</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AF16" s="0" t="n">
         <v>-60800000.0</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>-62900000.0</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>-62500000.0</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>-58400000.0</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>-63400000.0</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>-61900000.0</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>-58300000.0</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>-59400000.0</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>-61700000.0</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>-64500000.0</v>
       </c>
     </row>
@@ -2272,120 +2325,123 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
+        <v>-2916100000.0</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>-2837800000.0</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>-2354500000.0</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>-2465700000.0</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>-2351300000.0</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>-2494900000.0</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>-2398900000.0</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>-2454000000.0</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>-2555200000.0</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>-2384400000.0</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>-2408300000.0</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>-2214700000.0</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>-2356800000.0</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>-2254100000.0</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>-2078400000.0</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="Q17" s="0" t="n">
         <v>-1941300000.0</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="R17" s="0" t="n">
         <v>-1498900000.0</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="S17" s="0" t="n">
         <v>-1354200000.0</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>-1263200000.0</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>-1287400000.0</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>-2549600000.0</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>-2517500000.0</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>-2323800000.0</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>-2123100000.0</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>-774000000.0</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>-756800000.0</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>-729900000.0</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>-722100000.0</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>-739600000.0</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>-745800000.0</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>-783000000.0</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>-753600000.0</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>-744500000.0</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>-729600000.0</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>-733600000.0</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>-837600000.0</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>-878500000.0</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>-892500000.0</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>-873800000.0</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>-725700000.0</v>
       </c>
     </row>
@@ -2396,120 +2452,123 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
+        <v>1903300000.0</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>1496900000.0</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>732900000.0</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>842800000.0</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>866200000.0</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>925600000.0</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>983700000.0</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>1084000000.0</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>1071400000.0</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>772700000.0</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>797800000.0</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>598900000.0</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>809800000.0</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>864900000.0</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>534700000.0</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>378200000.0</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>-4600000.0</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>-140800000.0</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>71900000.0</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>41700000.0</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>1509300000.0</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>1783400000.0</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>1491900000.0</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>1527000000.0</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>66100000.0</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>5900000.0</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>9000000.0</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>-72600000.0</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>-41100000.0</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>-3400000.0</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>45200000.0</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>-42600000.0</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>-9600000.0</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>-43800000.0</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>-63700000.0</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>297400000.0</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>106200000.0</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>265400000.0</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>231600000.0</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>-43100000.0</v>
       </c>
     </row>
@@ -2520,120 +2579,123 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
+        <v>-36400000.0</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>-55400000.0</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>-34400000.0</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>-46900000.0</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>-59400000.0</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>-73100000.0</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>-87300000.0</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>-84800000.0</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>-67700000.0</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>-43300000.0</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>-33600000.0</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>-31100000.0</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>-39900000.0</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>-40500000.0</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>-36200000.0</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>-31300000.0</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>-42500000.0</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>-66400000.0</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>-70100000.0</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>-84000000.0</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>-67800000.0</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>-44600000.0</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>-60100000.0</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>-53000000.0</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>-50500000.0</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>-72900000.0</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>-82200000.0</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>-119600000.0</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>-173100000.0</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>-174900000.0</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>-188900000.0</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>-160000000.0</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>-126300000.0</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>-103400000.0</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>-98500000.0</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>-155900000.0</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>-143900000.0</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>-139500000.0</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>-113900000.0</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>-62000000.0</v>
       </c>
     </row>
@@ -2644,120 +2706,123 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
+        <v>-812200000.0</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>-798000000.0</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>-784600000.0</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>-771200000.0</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>-757800000.0</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>-744500000.0</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>-732700000.0</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>-720900000.0</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>-709300000.0</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>-697300000.0</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>-687100000.0</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>-676900000.0</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>-666600000.0</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>-656500000.0</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>-648700000.0</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>-640800000.0</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>-632800000.0</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>-624900000.0</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>-613100000.0</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>-577300000.0</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>-516300000.0</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>-455400000.0</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>-398900000.0</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>-366500000.0</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>-359200000.0</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>-352000000.0</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>-350600000.0</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>-349300000.0</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>-339200000.0</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>-328900000.0</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>-311200000.0</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>-293600000.0</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>-285000000.0</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>-276300000.0</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>-267400000.0</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>-258800000.0</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>-250300000.0</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>-242000000.0</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>-228700000.0</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>-215000000.0</v>
       </c>
     </row>
@@ -2768,124 +2833,127 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>-154000000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>-153700000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>-89600000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>-87800000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>-65000000.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>-62300000.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>-16400000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>-8900000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>-9000000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>-5700000.0</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="L21" s="0" t="n">
         <v>-8200000.0</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="M21" s="0" t="n">
         <v>-7600000.0</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="N21" s="0" t="n">
         <v>-6200000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>-6500000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>-4500000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>-4200000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>-24000000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>-13600000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>-11100000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>-23800000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>-12900000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>-18900000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>-14300000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>2500000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>11400000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>12800000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>7400000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>4000000.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>8900000.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>11200000.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>11600000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>10900000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>11000000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>4500000.0</v>
       </c>
-      <c r="AI21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AJ21" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AK21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL21" s="0" t="n">
         <v>5700000.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>4800000.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>4400000.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>10600000.0</v>
       </c>
     </row>
@@ -2896,120 +2964,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>1039300000.0</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>632100000.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>-105400000.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>3500000.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>27600000.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>85600000.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>147300000.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>269400000.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>285400000.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>26400000.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>68900000.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>-116700000.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>97100000.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>161400000.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>-154700000.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>-298100000.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>-703900000.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>-845700000.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>-675100000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>-696100000.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>859600000.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>1211800000.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>1018600000.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>1110000000.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>-332200000.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>-406200000.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>-416400000.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>-537500000.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>-544500000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>-496000000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>-443300000.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>-485200000.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>-412600000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>-422800000.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>-426700000.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>-113400000.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>-282300000.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>-111300000.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>-106600000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>-309500000.0</v>
       </c>
     </row>
@@ -3020,120 +3091,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>23900000.0</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>-9700000.0</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>-5400000.0</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>-28300000.0</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>-23400000.0</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>-63800000.0</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>26400000.0</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>38700000.0</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>17400000.0</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>87500000.0</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>1700000.0</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>-6300000.0</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>-1700000.0</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>-14100000.0</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>-105500000.0</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>-92800000.0</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>-80300000.0</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>-96100000.0</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>2800000.0</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>-182300000.0</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>-30500000.0</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>-12100000.0</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>-66500000.0</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>181000000.0</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>37600000.0</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>35900000.0</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>70200000.0</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>12400000.0</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>2900000.0</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>-9600000.0</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>5500000.0</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>7900000.0</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>6600000.0</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>21500000.0</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>-2100000.0</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>2500000.0</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>-217900000.0</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>-10400000.0</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>3900000.0</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>100000.0</v>
       </c>
     </row>
@@ -3144,7 +3218,7 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>82300000.0</v>
+        <v>72600000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>82300000.0</v>
@@ -3156,7 +3230,7 @@
         <v>82300000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>146100000.0</v>
+        <v>82300000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>146100000.0</v>
@@ -3168,7 +3242,7 @@
         <v>146100000.0</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>58600000.0</v>
+        <v>146100000.0</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>58600000.0</v>
@@ -3180,10 +3254,10 @@
         <v>58600000.0</v>
       </c>
       <c r="N24" s="0" t="n">
+        <v>58600000.0</v>
+      </c>
+      <c r="O24" s="0" t="n">
         <v>72700000.0</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>191700000.0</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>191700000.0</v>
@@ -3192,10 +3266,10 @@
         <v>191700000.0</v>
       </c>
       <c r="R24" s="0" t="n">
+        <v>191700000.0</v>
+      </c>
+      <c r="S24" s="0" t="n">
         <v>168800000.0</v>
-      </c>
-      <c r="S24" s="0" t="n">
-        <v>49800000.0</v>
       </c>
       <c r="T24" s="0" t="n">
         <v>49800000.0</v>
@@ -3204,7 +3278,7 @@
         <v>49800000.0</v>
       </c>
       <c r="V24" s="0" t="n">
-        <v>61900000.0</v>
+        <v>49800000.0</v>
       </c>
       <c r="W24" s="0" t="n">
         <v>61900000.0</v>
@@ -3216,7 +3290,7 @@
         <v>61900000.0</v>
       </c>
       <c r="Z24" s="0" t="n">
-        <v>26000000.0</v>
+        <v>61900000.0</v>
       </c>
       <c r="AA24" s="0" t="n">
         <v>26000000.0</v>
@@ -3228,7 +3302,7 @@
         <v>26000000.0</v>
       </c>
       <c r="AD24" s="0" t="n">
-        <v>35600000.0</v>
+        <v>26000000.0</v>
       </c>
       <c r="AE24" s="0" t="n">
         <v>35600000.0</v>
@@ -3240,7 +3314,7 @@
         <v>35600000.0</v>
       </c>
       <c r="AH24" s="0" t="n">
-        <v>14100000.0</v>
+        <v>35600000.0</v>
       </c>
       <c r="AI24" s="0" t="n">
         <v>14100000.0</v>
@@ -3252,12 +3326,15 @@
         <v>14100000.0</v>
       </c>
       <c r="AL24" s="0" t="n">
-        <v>24500000.0</v>
+        <v>14100000.0</v>
       </c>
       <c r="AM24" s="0" t="n">
         <v>24500000.0</v>
       </c>
       <c r="AN24" s="0" t="n">
+        <v>24500000.0</v>
+      </c>
+      <c r="AO24" s="0" t="n">
         <v>24500000.0</v>
       </c>
     </row>
@@ -3268,120 +3345,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>96500000.0</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>72600000.0</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>76900000.0</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>54000000.0</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>58900000.0</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>82300000.0</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>172500000.0</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>184800000.0</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>163500000.0</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>146100000.0</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>60300000.0</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>52300000.0</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>56900000.0</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>58600000.0</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>86200000.0</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>98900000.0</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>111400000.0</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>72700000.0</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>52600000.0</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>-132500000.0</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>19300000.0</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>49800000.0</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>-4600000.0</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>242900000.0</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>99500000.0</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>61900000.0</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>96200000.0</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>38400000.0</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>28900000.0</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>26000000.0</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>41100000.0</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>43500000.0</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>42200000.0</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>35600000.0</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>12000000.0</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>16600000.0</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>-203800000.0</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>14100000.0</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>28400000.0</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>24600000.0</v>
       </c>
     </row>
@@ -3392,120 +3472,123 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>-812200000.0</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>-798000000.0</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="D26" s="0" t="n">
         <v>-784600000.0</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>-771200000.0</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>-757800000.0</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>-744500000.0</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="H26" s="0" t="n">
         <v>-732700000.0</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>-720900000.0</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="J26" s="0" t="n">
         <v>-709300000.0</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="K26" s="0" t="n">
         <v>-697300000.0</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>-687100000.0</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>-676900000.0</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="N26" s="0" t="n">
         <v>-666600000.0</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="O26" s="0" t="n">
         <v>-656500000.0</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>-648700000.0</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>-640800000.0</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>-632800000.0</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="S26" s="0" t="n">
         <v>-624900000.0</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="T26" s="0" t="n">
         <v>-613100000.0</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="U26" s="0" t="n">
         <v>-577300000.0</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>-516300000.0</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="W26" s="0" t="n">
         <v>-455400000.0</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>-398900000.0</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>-366500000.0</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>-359200000.0</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>-352000000.0</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>-350600000.0</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>-349300000.0</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>-339200000.0</v>
       </c>
-      <c r="AD26" s="0" t="n">
+      <c r="AE26" s="0" t="n">
         <v>-328900000.0</v>
       </c>
-      <c r="AE26" s="0" t="n">
+      <c r="AF26" s="0" t="n">
         <v>-311200000.0</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>-293600000.0</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>-285000000.0</v>
       </c>
-      <c r="AH26" s="0" t="n">
+      <c r="AI26" s="0" t="n">
         <v>-276300000.0</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>-267400000.0</v>
       </c>
-      <c r="AJ26" s="0" t="n">
+      <c r="AK26" s="0" t="n">
         <v>-258800000.0</v>
       </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AL26" s="0" t="n">
         <v>-250300000.0</v>
       </c>
-      <c r="AL26" s="0" t="n">
+      <c r="AM26" s="0" t="n">
         <v>-242000000.0</v>
       </c>
-      <c r="AM26" s="0" t="n">
+      <c r="AN26" s="0" t="n">
         <v>-228700000.0</v>
       </c>
-      <c r="AN26" s="0" t="n">
+      <c r="AO26" s="0" t="n">
         <v>-215000000.0</v>
       </c>
     </row>
@@ -3516,120 +3599,123 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>-133500000.0</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>-51800000.0</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>104200000.0</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>177200000.0</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>43200000.0</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>169800000.0</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>-47800000.0</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="I27" s="0" t="n">
         <v>-157200000.0</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="J27" s="0" t="n">
         <v>-24800000.0</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>47700000.0</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>257800000.0</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>184100000.0</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>123200000.0</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>126100000.0</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>111600000.0</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>141200000.0</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>143000000.0</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>36100000.0</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>-173600000.0</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>-129000000.0</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>-47600000.0</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>-7800000.0</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>126100000.0</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>150000000.0</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>50500000.0</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>-26000000.0</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>-92800000.0</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>-57000000.0</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>-63400000.0</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>-108500000.0</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>99600000.0</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>181400000.0</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>122700000.0</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>226700000.0</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>62900000.0</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>-94200000.0</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>-78500000.0</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>1100000.0</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>34400000.0</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>97000000.0</v>
       </c>
     </row>
@@ -3640,120 +3726,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>-4100000.0</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>-2800000.0</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>-13400000.0</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>-22500000.0</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>-35100000.0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>-52400000.0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>-9900000.0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>-5800000.0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>-6900000.0</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>100000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>-77000000.0</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>-78600000.0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>-81900000.0</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>-104600000.0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>-127400000.0</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>-129600000.0</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>-109800000.0</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>-99800000.0</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>-30200000.0</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>-18200000.0</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>-16400000.0</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>-8700000.0</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>-8200000.0</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>-7800000.0</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>-10500000.0</v>
-      </c>
-      <c r="Z28" s="0" t="n">
-        <v>-13100000.0</v>
       </c>
       <c r="AA28" s="0" t="n">
         <v>-13100000.0</v>
       </c>
       <c r="AB28" s="0" t="n">
+        <v>-13100000.0</v>
+      </c>
+      <c r="AC28" s="0" t="n">
         <v>-13200000.0</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>-13100000.0</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>-10500000.0</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>-3700000.0</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>900000.0</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>7600000.0</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>27100000.0</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>22900000.0</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>19000000.0</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>14200000.0</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>-43800000.0</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>9300000.0</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>61300000.0</v>
       </c>
     </row>
@@ -3764,120 +3853,123 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>-36400000.0</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>-55400000.0</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>-34400000.0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>-46900000.0</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>-59400000.0</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>-73100000.0</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>-87300000.0</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>-84800000.0</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="J29" s="0" t="n">
         <v>-67700000.0</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="K29" s="0" t="n">
         <v>-43300000.0</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>-33600000.0</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>-31100000.0</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="N29" s="0" t="n">
         <v>-39900000.0</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>-40500000.0</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>-36200000.0</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="Q29" s="0" t="n">
         <v>-31300000.0</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>-42500000.0</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>-66400000.0</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>-122800000.0</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>-136700000.0</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>-120500000.0</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>-97300000.0</v>
       </c>
-      <c r="W29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>-60100000.0</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Y29" s="0" t="n">
         <v>-53000000.0</v>
       </c>
-      <c r="Y29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>-50500000.0</v>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>-72900000.0</v>
       </c>
-      <c r="AA29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>-82200000.0</v>
       </c>
-      <c r="AB29" s="0" t="n">
+      <c r="AC29" s="0" t="n">
         <v>-119600000.0</v>
       </c>
-      <c r="AC29" s="0" t="n">
+      <c r="AD29" s="0" t="n">
         <v>-173100000.0</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>-174900000.0</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>-188900000.0</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>-160000000.0</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>-126300000.0</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>-103400000.0</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>-98500000.0</v>
       </c>
-      <c r="AJ29" s="0" t="n">
+      <c r="AK29" s="0" t="n">
         <v>-155900000.0</v>
       </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AL29" s="0" t="n">
         <v>-143900000.0</v>
       </c>
-      <c r="AL29" s="0" t="n">
+      <c r="AM29" s="0" t="n">
         <v>-139500000.0</v>
       </c>
-      <c r="AM29" s="0" t="n">
+      <c r="AN29" s="0" t="n">
         <v>-113900000.0</v>
       </c>
-      <c r="AN29" s="0" t="n">
+      <c r="AO29" s="0" t="n">
         <v>-62000000.0</v>
       </c>
     </row>
@@ -3887,121 +3979,126 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>-55400000.0</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>-34400000.0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>-46900000.0</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>-59400000.0</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>-73100000.0</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>-87300000.0</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>-84800000.0</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>-67700000.0</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>-43300000.0</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>-33600000.0</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>-31100000.0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>-39900000.0</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>-40500000.0</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>-36200000.0</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>-31300000.0</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>-42500000.0</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>-66400000.0</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>-70100000.0</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>-84000000.0</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>-67800000.0</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>-44600000.0</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>-60100000.0</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>-53000000.0</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>-50500000.0</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>-72900000.0</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>-82200000.0</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>-119600000.0</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>-173100000.0</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>-174900000.0</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>-188900000.0</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>-160000000.0</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>-126300000.0</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>-103400000.0</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>-98500000.0</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>-155900000.0</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>-143900000.0</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>-139500000.0</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>-113900000.0</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>-62000000.0</v>
       </c>
     </row>
